--- a/testes.xlsx
+++ b/testes.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14joa\Faculdade\Last One\SD\PL\Projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Documents\GitHub\SD_Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB19147B-C102-49FA-8350-114577B6E6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7674F-D342-44B2-A815-201E3A55C6E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F24B37C5-3F5D-41D2-8207-AA4351801376}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -262,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -363,11 +357,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -403,15 +459,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,6 +467,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A17371B-A20E-4905-86EE-26B0A3EA497E}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,10 +854,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -777,34 +866,34 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -813,34 +902,34 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -849,16 +938,16 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
@@ -877,10 +966,10 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -889,8 +978,8 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
@@ -910,10 +999,10 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -922,8 +1011,8 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -943,19 +1032,67 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="4"/>
     </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:D27"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14joa\Faculdade\Last One\SD\PL\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB19147B-C102-49FA-8350-114577B6E6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8727103B-15AE-48DA-885C-3584401A60F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F24B37C5-3F5D-41D2-8207-AA4351801376}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -200,12 +194,27 @@
   <si>
     <t>O cliente ao efetuar o upload de ficheiros de texto, estes são armazenados na pasta root do mesmo do lado do servidor</t>
   </si>
+  <si>
+    <t>Troca entre servidor primário e secundário</t>
+  </si>
+  <si>
+    <t>Atráves de pings que o servidor secundário envia por UDP ao servidor primário, vai ocorrendo a verificação que se o servidor primário está ativo (caso o tempo de timeout pré-estabelecido passe sem que o servidor primário responda, então o servidor secundário substitui-o)</t>
+  </si>
+  <si>
+    <t>Atualização da file storage do servidor primário com o secundário</t>
+  </si>
+  <si>
+    <t>O servidor primário deve reconhecer que não está sincronizado com o servidor secundário, isto é, se já houve uploads e/ou alterações aos ficheiros, sincronizando-se pondo o servidor secundário up to date.</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +250,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -363,11 +393,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -403,15 +532,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,6 +540,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A17371B-A20E-4905-86EE-26B0A3EA497E}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,10 +939,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -777,34 +951,34 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -813,34 +987,34 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -849,16 +1023,16 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
@@ -877,10 +1051,10 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -889,8 +1063,8 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
@@ -910,10 +1084,10 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -922,8 +1096,8 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -943,19 +1117,105 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="4"/>
     </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:9" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
